--- a/CVX_Kenya/my_graphs/Water Change by Activities.xlsx
+++ b/CVX_Kenya/my_graphs/Water Change by Activities.xlsx
@@ -432,13 +432,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0005067816494571227</v>
+        <v>0.002939958545068731</v>
       </c>
       <c r="C2">
-        <v>-0.000506781649459963</v>
+        <v>0.00293995854507047</v>
       </c>
       <c r="D2">
-        <v>-0.0005067816494532324</v>
+        <v>0.002939958545078245</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -446,13 +446,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.00659188594860386</v>
+        <v>3.808932358547125E-07</v>
       </c>
       <c r="C3">
-        <v>-0.006591885948593429</v>
+        <v>3.808932362616549E-07</v>
       </c>
       <c r="D3">
-        <v>-0.006591885948593047</v>
+        <v>3.808932385690516E-07</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,13 +460,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.04955519989913292</v>
+        <v>1.448975640375648E-07</v>
       </c>
       <c r="C4">
-        <v>-0.0495551998991373</v>
+        <v>1.448975663858001E-07</v>
       </c>
       <c r="D4">
-        <v>-0.04955519989914557</v>
+        <v>1.448975633286896E-07</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -474,13 +474,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-3.799719041684626E-05</v>
+        <v>0.003667630002616969</v>
       </c>
       <c r="C5">
-        <v>-3.79971904126372E-05</v>
+        <v>0.003667630002608991</v>
       </c>
       <c r="D5">
-        <v>-3.799719041463731E-05</v>
+        <v>0.00366763000261794</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -488,13 +488,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.005978144930914619</v>
+        <v>1.366435165840219E-05</v>
       </c>
       <c r="C6">
-        <v>-0.005978144930890982</v>
+        <v>1.366435169617108E-05</v>
       </c>
       <c r="D6">
-        <v>-0.005978144930891583</v>
+        <v>1.366435169313481E-05</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -502,13 +502,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-8.243955627608151E-05</v>
+        <v>2.368757855338019E-05</v>
       </c>
       <c r="C7">
-        <v>-6.420026768529201E-05</v>
+        <v>2.209255172651603E-05</v>
       </c>
       <c r="D7">
-        <v>-8.243955630144786E-05</v>
+        <v>2.368757850949929E-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -516,13 +516,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-6.155491043269675E-05</v>
+        <v>0.0005482768665219502</v>
       </c>
       <c r="C8">
-        <v>-5.762348788439072E-05</v>
+        <v>0.000434670253791872</v>
       </c>
       <c r="D8">
-        <v>-4.354540914318967E-05</v>
+        <v>0.0006426513249862472</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -530,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-5.278215076259936E-06</v>
+        <v>0.001551349602901047</v>
       </c>
       <c r="C9">
-        <v>-5.278215076419133E-06</v>
+        <v>0.00155134960290326</v>
       </c>
       <c r="D9">
-        <v>-5.278215085146255E-06</v>
+        <v>0.001551349602902931</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -544,13 +544,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.0008818639505322911</v>
+        <v>0.000834135881859916</v>
       </c>
       <c r="C10">
-        <v>-0.001162616032036848</v>
+        <v>0.0005011916252527399</v>
       </c>
       <c r="D10">
-        <v>-0.001446701119286706</v>
+        <v>2.441486563903493E-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -558,10 +558,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-3.933665641177762E-05</v>
+        <v>6.852026537000017E-05</v>
       </c>
       <c r="D11">
-        <v>-3.933666089318214E-05</v>
+        <v>6.852027282981138E-05</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/my_graphs/Water Change by Activities.xlsx
+++ b/CVX_Kenya/my_graphs/Water Change by Activities.xlsx
@@ -432,13 +432,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002939958545068731</v>
+        <v>6.268748566506943E-05</v>
       </c>
       <c r="C2">
-        <v>0.00293995854507047</v>
+        <v>0.001599156226475884</v>
       </c>
       <c r="D2">
-        <v>0.002939958545078245</v>
+        <v>4.30553141705925E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -446,13 +446,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3.808932358547125E-07</v>
+        <v>9.107660048357502E-08</v>
       </c>
       <c r="C3">
-        <v>3.808932362616549E-07</v>
+        <v>1.76407894514341E-06</v>
       </c>
       <c r="D3">
-        <v>3.808932385690516E-07</v>
+        <v>1.275072492035179E-07</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,13 +460,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1.448975640375648E-07</v>
+        <v>2.296691947734075E-09</v>
       </c>
       <c r="C4">
-        <v>1.448975663858001E-07</v>
+        <v>8.280819201900158E-06</v>
       </c>
       <c r="D4">
-        <v>1.448975633286896E-07</v>
+        <v>2.038774660206855E-08</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -474,13 +474,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.003667630002616969</v>
+        <v>3.131014289015077E-05</v>
       </c>
       <c r="C5">
-        <v>0.003667630002608991</v>
+        <v>0.000424092825120681</v>
       </c>
       <c r="D5">
-        <v>0.00366763000261794</v>
+        <v>1.038567922523326E-05</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -488,13 +488,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.366435165840219E-05</v>
+        <v>4.16423208693395E-08</v>
       </c>
       <c r="C6">
-        <v>1.366435169617108E-05</v>
+        <v>1.062294590070678E-06</v>
       </c>
       <c r="D6">
-        <v>1.366435169313481E-05</v>
+        <v>2.860097503276648E-08</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -502,13 +502,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>2.368757855338019E-05</v>
+        <v>4.172967717153142E-06</v>
       </c>
       <c r="C7">
-        <v>2.209255172651603E-05</v>
+        <v>0.01007666458463063</v>
       </c>
       <c r="D7">
-        <v>2.368757850949929E-05</v>
+        <v>3.704345667188136E-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -516,13 +516,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0005482768665219502</v>
+        <v>0.003141038826697695</v>
       </c>
       <c r="C8">
-        <v>0.000434670253791872</v>
+        <v>0.1255649392405758</v>
       </c>
       <c r="D8">
-        <v>0.0006426513249862472</v>
+        <v>0.001554776877810582</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -530,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.001551349602901047</v>
+        <v>4.552381112477022E-05</v>
       </c>
       <c r="C9">
-        <v>0.00155134960290326</v>
+        <v>0.001404903906873756</v>
       </c>
       <c r="D9">
-        <v>0.001551349602902931</v>
+        <v>0.002599266092119024</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -544,13 +544,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.000834135881859916</v>
+        <v>0.008508961102393187</v>
       </c>
       <c r="C10">
-        <v>0.0005011916252527399</v>
+        <v>0.07507947120211611</v>
       </c>
       <c r="D10">
-        <v>2.441486563903493E-05</v>
+        <v>0.0002123632777966122</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -558,10 +558,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>6.852026537000017E-05</v>
+        <v>2.413879530038798E-06</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>6.852027282981138E-05</v>
+        <v>4.223355209376223E-05</v>
       </c>
     </row>
   </sheetData>
